--- a/Sprint 2 Documentation/Sprint2Backlog.xlsx
+++ b/Sprint 2 Documentation/Sprint2Backlog.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\uni - gitfolder\Agile-Software-Development\Sprint 2 Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_2e22\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CCD723-CD49-4A09-99A8-C0E510BF6E72}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{28BA9130-4C7A-4085-9D29-EA73FE42D94F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" state="hidden" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="57">
   <si>
     <t>Backlog Task &amp; ID</t>
   </si>
@@ -39,13 +40,16 @@
     <t>Priority</t>
   </si>
   <si>
-    <t>Assigned to</t>
+    <t>Lead for task</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Also assigned </t>
   </si>
   <si>
     <t>Status</t>
   </si>
   <si>
-    <t>Original Estimate</t>
+    <t>Overall Estimate</t>
   </si>
   <si>
     <t>Day 1</t>
@@ -69,50 +73,143 @@
     <t>Date of addition</t>
   </si>
   <si>
+    <t>1. As a customer, I can search based on procedure</t>
+  </si>
+  <si>
     <t>Completed</t>
   </si>
   <si>
+    <t>Webpage link to API to call database search results</t>
+  </si>
+  <si>
+    <t>AN</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
     <t>In-Progress</t>
   </si>
   <si>
+    <t>Update design of search function</t>
+  </si>
+  <si>
+    <t>Reseach and follow accessibility guidelines</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>3. As a customer, I can search based on location</t>
+  </si>
+  <si>
+    <t>Finalise Live Location implementation</t>
+  </si>
+  <si>
+    <t>9. As a customer, I can view search results on a map</t>
+  </si>
+  <si>
+    <t>Integrate Map functionality with front-end</t>
+  </si>
+  <si>
+    <t>WM</t>
+  </si>
+  <si>
+    <t>Map displays information about provider</t>
+  </si>
+  <si>
+    <t>21. As a customer, I can click a search result in the list and view it on the map</t>
+  </si>
+  <si>
+    <t>Map moves to location</t>
+  </si>
+  <si>
+    <t>Map zooms appropriately</t>
+  </si>
+  <si>
+    <t>10. As a customer, I can set a price range for my search using a slider</t>
+  </si>
+  <si>
+    <t>Create slider for price range on search page</t>
+  </si>
+  <si>
+    <t>Pass variables from price slider to the results page</t>
+  </si>
+  <si>
+    <t>11. As a customer, I can set a distance range for my search using a slider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create slider for distance range on search page </t>
+  </si>
+  <si>
+    <t>AG</t>
+  </si>
+  <si>
+    <t>Pass variables from distance slider to the results page</t>
+  </si>
+  <si>
+    <t>16. As a customer, I can view service provider information page</t>
+  </si>
+  <si>
+    <t>Update contact page design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Send a query by email implementation </t>
+  </si>
+  <si>
+    <t>17. As an admin, I can login to an admin account</t>
+  </si>
+  <si>
+    <t>19. As an admin, I can add a new medical centre</t>
+  </si>
+  <si>
+    <t>20. As an admin, I can remove a medical centre</t>
+  </si>
+  <si>
+    <t>18. As an admin, I can edit details of a medical centre</t>
+  </si>
+  <si>
+    <t>7. As a customer, I can sort search results based on "best match"</t>
+  </si>
+  <si>
+    <t>5. As a customer, I can sort search results based on rating</t>
+  </si>
+  <si>
+    <t>15. As a customer, I can rate a medical centre</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Team Members unit of work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrius (AN) - </t>
+  </si>
+  <si>
+    <t>Alek (AR) -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amy (AG) - </t>
+  </si>
+  <si>
+    <t>Aylin (AI) -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">William (WM) - </t>
+  </si>
+  <si>
+    <t>Calum (CW) -</t>
+  </si>
+  <si>
     <t>Not Started</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>12. As a customer, I can view further details of a search result in the list</t>
-  </si>
-  <si>
-    <t>13. As a customer, I can view further details of a search result on a map</t>
-  </si>
-  <si>
-    <t>17. As an admin, I can login to an admin account</t>
-  </si>
-  <si>
-    <t>19. As an admin, I can add a new medical centre</t>
-  </si>
-  <si>
-    <t>20. As an admin, I can remove a medical centre</t>
-  </si>
-  <si>
-    <t>18. As an admin, I can edit details of a medical centre</t>
-  </si>
-  <si>
-    <t>7. As a customer, I can sort search results based on "best match"</t>
-  </si>
-  <si>
-    <t>5. As a customer, I can sort search results based on rating</t>
-  </si>
-  <si>
-    <t>15. As a customer, I can rate a medical centre</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,7 +218,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -143,6 +240,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -202,12 +305,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,24 +629,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0174FFD9-7094-43F7-9D9D-5E73D5FB3BEA}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:M54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="65.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.88671875" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="65.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -576,105 +683,545 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="8" customFormat="1">
+      <c r="A2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="8">
+        <v>10</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="4">
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="8" customFormat="1">
+      <c r="A6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="8">
+        <v>9</v>
+      </c>
+      <c r="F6" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="8" customFormat="1">
+      <c r="A9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="8">
+        <v>8</v>
+      </c>
+      <c r="F9" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="4" customFormat="1">
+      <c r="A13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="F13" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="4" customFormat="1">
+      <c r="A16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="4">
+        <v>4</v>
+      </c>
+      <c r="F16" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="7">
+        <v>2</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="7">
+        <v>2</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+    </row>
+    <row r="19" spans="1:13" s="4" customFormat="1">
+      <c r="A19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="4">
+        <v>4</v>
+      </c>
+      <c r="F19" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="4">
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="8" customFormat="1">
+      <c r="A22" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23">
+        <v>4</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24">
+        <v>4</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="4" customFormat="1">
+      <c r="A25" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="4">
+        <v>3</v>
+      </c>
+      <c r="F25" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="4">
+    <row r="28" spans="1:13" s="4" customFormat="1">
+      <c r="A28" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="4">
+      <c r="F28" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+    </row>
+    <row r="31" spans="1:13" s="4" customFormat="1">
+      <c r="A31" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="4">
+      <c r="F31" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:13" s="4" customFormat="1">
+      <c r="A34" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="4">
+      <c r="F34" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" s="4" customFormat="1">
+      <c r="A37" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="4">
+      <c r="F37" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" s="4" customFormat="1">
+      <c r="A40" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="4">
+      <c r="F40" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+    </row>
+    <row r="43" spans="1:13" s="4" customFormat="1">
+      <c r="A43" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>15</v>
+      <c r="F43" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" s="3" customFormat="1">
+      <c r="A46" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D14 D16:D19" xr:uid="{5D92ECCF-D082-4234-8C37-5049DCDCBCE7}">
-      <formula1>$A$1:$A$3</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6CC1C6D9-B688-42E2-8DCC-8F90DACC4781}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A471D957-C8AB-442D-AAFE-D2836A4A9582}">
           <x14:formula1>
-            <xm:f>Sheet1!$A$1:$A$3</xm:f>
+            <xm:f>Sheet2!$A$1:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>D1 D20 D15</xm:sqref>
+          <xm:sqref>E1:E1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -683,29 +1230,60 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{353EF1D9-0B66-4A7D-95E5-BAC5EE56A2BE}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62FADEC9-C8B8-40A5-95A5-2AB9A6C409DA}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="15">
       <c r="A1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15">
+      <c r="A3" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Sprint 2 Documentation/Sprint2Backlog.xlsx
+++ b/Sprint 2 Documentation/Sprint2Backlog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_2e22\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_1dd4\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28BA9130-4C7A-4085-9D29-EA73FE42D94F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B0EC0C6-F381-4F56-B533-E162C6518CB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="61">
   <si>
     <t>Backlog Task &amp; ID</t>
   </si>
@@ -88,12 +88,15 @@
     <t>AI</t>
   </si>
   <si>
+    <t>Update design of search function</t>
+  </si>
+  <si>
+    <t>AG, AN</t>
+  </si>
+  <si>
     <t>In-Progress</t>
   </si>
   <si>
-    <t>Update design of search function</t>
-  </si>
-  <si>
     <t>Reseach and follow accessibility guidelines</t>
   </si>
   <si>
@@ -115,16 +118,19 @@
     <t>WM</t>
   </si>
   <si>
-    <t>Map displays information about provider</t>
+    <t>Functionality for map to display information about provider</t>
+  </si>
+  <si>
+    <t>Map adapts to changing the page of results.</t>
   </si>
   <si>
     <t>21. As a customer, I can click a search result in the list and view it on the map</t>
   </si>
   <si>
-    <t>Map moves to location</t>
-  </si>
-  <si>
-    <t>Map zooms appropriately</t>
+    <t>Functionality for map to move to selected location</t>
+  </si>
+  <si>
+    <t>Functionality for map to zoom appropriately</t>
   </si>
   <si>
     <t>10. As a customer, I can set a price range for my search using a slider</t>
@@ -136,25 +142,31 @@
     <t>Pass variables from price slider to the results page</t>
   </si>
   <si>
+    <t>Add automatic value placement for double ended slider</t>
+  </si>
+  <si>
+    <t>AG</t>
+  </si>
+  <si>
     <t>11. As a customer, I can set a distance range for my search using a slider</t>
   </si>
   <si>
     <t xml:space="preserve">Create slider for distance range on search page </t>
   </si>
   <si>
-    <t>AG</t>
-  </si>
-  <si>
     <t>Pass variables from distance slider to the results page</t>
   </si>
   <si>
+    <t>Add automatic value placement for single ended slider</t>
+  </si>
+  <si>
     <t>16. As a customer, I can view service provider information page</t>
   </si>
   <si>
     <t>Update contact page design</t>
   </si>
   <si>
-    <t xml:space="preserve">Send a query by email implementation </t>
+    <t>JavaScript for email handling</t>
   </si>
   <si>
     <t>17. As an admin, I can login to an admin account</t>
@@ -629,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0174FFD9-7094-43F7-9D9D-5E73D5FB3BEA}">
-  <dimension ref="A1:M54"/>
+  <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -712,32 +724,62 @@
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F3">
         <v>9</v>
       </c>
+      <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
         <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
         <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -748,10 +790,19 @@
       <c r="H5">
         <v>0</v>
       </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:13" s="8" customFormat="1">
       <c r="A6" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" s="8">
         <v>9</v>
@@ -762,7 +813,7 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
@@ -779,72 +830,166 @@
       <c r="H7">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" s="8" customFormat="1">
-      <c r="A9" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="8">
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="8" customFormat="1">
+      <c r="A8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="8">
         <v>8</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F8" s="8">
         <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
         <v>27</v>
       </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" s="4" customFormat="1">
-      <c r="A13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="4">
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="4" customFormat="1">
+      <c r="A12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="4">
         <v>7</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F12" s="4">
         <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
         <v>16</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
@@ -853,49 +998,68 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="4" customFormat="1">
+      <c r="A15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="4">
+        <v>4</v>
+      </c>
+      <c r="F15" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E15" t="s">
+      <c r="D16" s="5"/>
+      <c r="E16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" s="4" customFormat="1">
-      <c r="A16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="4">
-        <v>4</v>
-      </c>
-      <c r="F16" s="4">
-        <v>4</v>
-      </c>
+      <c r="F16" s="7">
+        <v>2</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0</v>
+      </c>
+      <c r="J16" s="5">
+        <v>0</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0</v>
+      </c>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5" t="s">
@@ -909,12 +1073,14 @@
         <v>2</v>
       </c>
       <c r="G17" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H17" s="5">
-        <v>0</v>
-      </c>
-      <c r="I17" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="I17" s="5">
+        <v>0</v>
+      </c>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
@@ -922,40 +1088,54 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
+      <c r="C18" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="E18" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="F18" s="7">
-        <v>2</v>
-      </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="G18" s="5">
+        <v>1</v>
+      </c>
+      <c r="H18" s="5">
+        <v>1</v>
+      </c>
+      <c r="I18" s="5">
+        <v>0</v>
+      </c>
+      <c r="J18" s="5">
+        <v>0</v>
+      </c>
+      <c r="K18" s="5">
+        <v>0</v>
+      </c>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
     </row>
     <row r="19" spans="1:13" s="4" customFormat="1">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B19" s="4">
         <v>4</v>
       </c>
       <c r="F19" s="4">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D20" t="s">
         <v>17</v>
@@ -972,52 +1152,88 @@
       <c r="H20">
         <v>0</v>
       </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
       </c>
       <c r="F21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" s="8" customFormat="1">
-      <c r="A22" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="8">
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="8" customFormat="1">
+      <c r="A23" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="8">
         <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23">
-        <v>4</v>
-      </c>
-      <c r="G23">
-        <v>4</v>
-      </c>
-      <c r="H23">
-        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
         <v>17</v>
       </c>
       <c r="E24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F24">
         <v>4</v>
@@ -1026,45 +1242,56 @@
         <v>4</v>
       </c>
       <c r="H24">
+        <v>3</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <v>4</v>
+      </c>
+      <c r="H25">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" s="4" customFormat="1">
-      <c r="A25" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="4">
+      <c r="I25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="4" customFormat="1">
+      <c r="A26" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="4">
         <v>3</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F26" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="4" customFormat="1">
-      <c r="A28" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="4">
+    <row r="29" spans="1:13" s="4" customFormat="1">
+      <c r="A29" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="4">
         <v>3</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F29" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="5"/>
@@ -1081,70 +1308,70 @@
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
     </row>
-    <row r="31" spans="1:13" s="4" customFormat="1">
-      <c r="A31" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" s="4">
+    <row r="31" spans="1:13">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+    </row>
+    <row r="32" spans="1:13" s="4" customFormat="1">
+      <c r="A32" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="4">
         <v>3</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F32" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:13">
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:13" s="4" customFormat="1">
-      <c r="A34" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" s="4">
+    <row r="34" spans="1:13">
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:13" s="4" customFormat="1">
+      <c r="A35" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="4">
         <v>3</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F35" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:13" s="4" customFormat="1">
-      <c r="A37" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37" s="4">
+    <row r="38" spans="1:13" s="4" customFormat="1">
+      <c r="A38" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="4">
         <v>2</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F38" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:13" s="4" customFormat="1">
-      <c r="A40" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" s="4">
-        <v>1</v>
-      </c>
-      <c r="F40" s="4">
+    <row r="41" spans="1:13" s="4" customFormat="1">
+      <c r="A41" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="4">
+        <v>1</v>
+      </c>
+      <c r="F41" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="5"/>
@@ -1161,55 +1388,70 @@
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
     </row>
-    <row r="43" spans="1:13" s="4" customFormat="1">
-      <c r="A43" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B43" s="4">
-        <v>1</v>
-      </c>
-      <c r="F43" s="4">
+    <row r="43" spans="1:13">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+    </row>
+    <row r="44" spans="1:13" s="4" customFormat="1">
+      <c r="A44" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="4">
+        <v>1</v>
+      </c>
+      <c r="F44" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:13" s="3" customFormat="1">
-      <c r="A46" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
-      <c r="A48" t="s">
-        <v>49</v>
+    <row r="47" spans="1:13" s="3" customFormat="1">
+      <c r="A47" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1242,12 +1484,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -1273,12 +1515,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15">

--- a/Sprint 2 Documentation/Sprint2Backlog.xlsx
+++ b/Sprint 2 Documentation/Sprint2Backlog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22604"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_2e22\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_828\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28BA9130-4C7A-4085-9D29-EA73FE42D94F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CFCF304-E3AD-4321-8C3D-DE5F1080EBDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="61">
   <si>
     <t>Backlog Task &amp; ID</t>
   </si>
@@ -88,121 +88,133 @@
     <t>AI</t>
   </si>
   <si>
+    <t>Update design of search function</t>
+  </si>
+  <si>
+    <t>AG, AN</t>
+  </si>
+  <si>
+    <t>Reseach and follow accessibility guidelines</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>3. As a customer, I can search based on location</t>
+  </si>
+  <si>
+    <t>Finalise Live Location implementation</t>
+  </si>
+  <si>
+    <t>9. As a customer, I can view search results on a map</t>
+  </si>
+  <si>
+    <t>Integrate Map functionality with front-end</t>
+  </si>
+  <si>
+    <t>WM</t>
+  </si>
+  <si>
+    <t>Functionality for map to display information about provider</t>
+  </si>
+  <si>
+    <t>Map adapts to changing the page of results.</t>
+  </si>
+  <si>
+    <t>21. As a customer, I can click a search result in the list and view it on the map</t>
+  </si>
+  <si>
+    <t>Functionality for map to move to selected location</t>
+  </si>
+  <si>
+    <t>Functionality for map to zoom appropriately</t>
+  </si>
+  <si>
+    <t>10. As a customer, I can set a price range for my search using a slider</t>
+  </si>
+  <si>
+    <t>Create slider for price range on search page</t>
+  </si>
+  <si>
+    <t>Pass variables from price slider to the results page</t>
+  </si>
+  <si>
+    <t>Add automatic value placement for double ended slider</t>
+  </si>
+  <si>
+    <t>AG</t>
+  </si>
+  <si>
+    <t>11. As a customer, I can set a distance range for my search using a slider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create slider for distance range on search page </t>
+  </si>
+  <si>
+    <t>Pass variables from distance slider to the results page</t>
+  </si>
+  <si>
+    <t>Add automatic value placement for single ended slider</t>
+  </si>
+  <si>
+    <t>16. As a customer, I can view the contact page</t>
+  </si>
+  <si>
+    <t>Update contact page design</t>
+  </si>
+  <si>
+    <t>JS script pop up to notify the user</t>
+  </si>
+  <si>
+    <t>17. As an admin, I can login to an admin account</t>
+  </si>
+  <si>
+    <t>19. As an admin, I can add a new medical centre</t>
+  </si>
+  <si>
+    <t>20. As an admin, I can remove a medical centre</t>
+  </si>
+  <si>
+    <t>18. As an admin, I can edit details of a medical centre</t>
+  </si>
+  <si>
+    <t>7. As a customer, I can sort search results based on "best match"</t>
+  </si>
+  <si>
+    <t>5. As a customer, I can sort search results based on rating</t>
+  </si>
+  <si>
+    <t>15. As a customer, I can rate a medical centre</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Team Members unit of work (daily)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrius (AN) - </t>
+  </si>
+  <si>
+    <t>Alek (AR) -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amy (AG) - </t>
+  </si>
+  <si>
+    <t>Aylin (AI) -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">William (WM) - </t>
+  </si>
+  <si>
+    <t>Calum (CW) -</t>
+  </si>
+  <si>
+    <t>Not Started</t>
+  </si>
+  <si>
     <t>In-Progress</t>
-  </si>
-  <si>
-    <t>Update design of search function</t>
-  </si>
-  <si>
-    <t>Reseach and follow accessibility guidelines</t>
-  </si>
-  <si>
-    <t>AR</t>
-  </si>
-  <si>
-    <t>3. As a customer, I can search based on location</t>
-  </si>
-  <si>
-    <t>Finalise Live Location implementation</t>
-  </si>
-  <si>
-    <t>9. As a customer, I can view search results on a map</t>
-  </si>
-  <si>
-    <t>Integrate Map functionality with front-end</t>
-  </si>
-  <si>
-    <t>WM</t>
-  </si>
-  <si>
-    <t>Map displays information about provider</t>
-  </si>
-  <si>
-    <t>21. As a customer, I can click a search result in the list and view it on the map</t>
-  </si>
-  <si>
-    <t>Map moves to location</t>
-  </si>
-  <si>
-    <t>Map zooms appropriately</t>
-  </si>
-  <si>
-    <t>10. As a customer, I can set a price range for my search using a slider</t>
-  </si>
-  <si>
-    <t>Create slider for price range on search page</t>
-  </si>
-  <si>
-    <t>Pass variables from price slider to the results page</t>
-  </si>
-  <si>
-    <t>11. As a customer, I can set a distance range for my search using a slider</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create slider for distance range on search page </t>
-  </si>
-  <si>
-    <t>AG</t>
-  </si>
-  <si>
-    <t>Pass variables from distance slider to the results page</t>
-  </si>
-  <si>
-    <t>16. As a customer, I can view service provider information page</t>
-  </si>
-  <si>
-    <t>Update contact page design</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Send a query by email implementation </t>
-  </si>
-  <si>
-    <t>17. As an admin, I can login to an admin account</t>
-  </si>
-  <si>
-    <t>19. As an admin, I can add a new medical centre</t>
-  </si>
-  <si>
-    <t>20. As an admin, I can remove a medical centre</t>
-  </si>
-  <si>
-    <t>18. As an admin, I can edit details of a medical centre</t>
-  </si>
-  <si>
-    <t>7. As a customer, I can sort search results based on "best match"</t>
-  </si>
-  <si>
-    <t>5. As a customer, I can sort search results based on rating</t>
-  </si>
-  <si>
-    <t>15. As a customer, I can rate a medical centre</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Team Members unit of work</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andrius (AN) - </t>
-  </si>
-  <si>
-    <t>Alek (AR) -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amy (AG) - </t>
-  </si>
-  <si>
-    <t>Aylin (AI) -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">William (WM) - </t>
-  </si>
-  <si>
-    <t>Calum (CW) -</t>
-  </si>
-  <si>
-    <t>Not Started</t>
   </si>
 </sst>
 </file>
@@ -629,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0174FFD9-7094-43F7-9D9D-5E73D5FB3BEA}">
-  <dimension ref="A1:M54"/>
+  <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -712,21 +724,51 @@
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F3">
         <v>9</v>
       </c>
+      <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
         <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F4">
         <v>3</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -737,7 +779,7 @@
         <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -746,6 +788,12 @@
         <v>2</v>
       </c>
       <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
         <v>0</v>
       </c>
     </row>
@@ -779,21 +827,53 @@
       <c r="H7">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" s="8" customFormat="1">
-      <c r="A9" s="8" t="s">
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="8" customFormat="1">
+      <c r="A8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B8" s="8">
         <v>8</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F8" s="8">
         <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
         <v>26</v>
@@ -802,50 +882,97 @@
         <v>14</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" s="4" customFormat="1">
-      <c r="A13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="4">
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="4" customFormat="1">
+      <c r="A12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="4">
         <v>7</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F12" s="4">
         <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
         <v>16</v>
       </c>
-      <c r="D14" t="s">
-        <v>26</v>
-      </c>
       <c r="E14" t="s">
         <v>14</v>
       </c>
@@ -853,49 +980,63 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="4" customFormat="1">
+      <c r="A15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="4">
+        <v>4</v>
+      </c>
+      <c r="F15" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" s="4" customFormat="1">
-      <c r="A16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="4">
-        <v>4</v>
-      </c>
-      <c r="F16" s="4">
-        <v>4</v>
-      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="7">
+        <v>2</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0</v>
+      </c>
+      <c r="J16" s="5">
+        <v>0</v>
+      </c>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5" t="s">
@@ -909,50 +1050,66 @@
         <v>2</v>
       </c>
       <c r="G17" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H17" s="5">
-        <v>0</v>
-      </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="I17" s="5">
+        <v>0</v>
+      </c>
+      <c r="J17" s="5">
+        <v>0</v>
+      </c>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
+      <c r="C18" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="E18" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="F18" s="7">
-        <v>2</v>
-      </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="G18" s="5">
+        <v>1</v>
+      </c>
+      <c r="H18" s="5">
+        <v>1</v>
+      </c>
+      <c r="I18" s="5">
+        <v>0</v>
+      </c>
+      <c r="J18" s="5">
+        <v>0</v>
+      </c>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
     </row>
     <row r="19" spans="1:13" s="4" customFormat="1">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B19" s="4">
         <v>4</v>
       </c>
       <c r="F19" s="4">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
         <v>36</v>
@@ -972,52 +1129,88 @@
       <c r="H20">
         <v>0</v>
       </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
       </c>
       <c r="F21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" s="8" customFormat="1">
-      <c r="A22" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="8">
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="8" customFormat="1">
+      <c r="A23" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="8">
         <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23">
-        <v>4</v>
-      </c>
-      <c r="G23">
-        <v>4</v>
-      </c>
-      <c r="H23">
-        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C24" t="s">
         <v>17</v>
       </c>
+      <c r="D24" t="s">
+        <v>36</v>
+      </c>
       <c r="E24" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F24">
         <v>4</v>
@@ -1026,45 +1219,62 @@
         <v>4</v>
       </c>
       <c r="H24">
+        <v>3</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="4" customFormat="1">
-      <c r="A25" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="4">
+    <row r="25" spans="1:13">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <v>4</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25">
+        <v>1.5</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="4" customFormat="1">
+      <c r="A26" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="4">
         <v>3</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F26" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="4" customFormat="1">
-      <c r="A28" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="4">
+    <row r="29" spans="1:13" s="4" customFormat="1">
+      <c r="A29" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="4">
         <v>3</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F29" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="5"/>
@@ -1081,70 +1291,70 @@
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
     </row>
-    <row r="31" spans="1:13" s="4" customFormat="1">
-      <c r="A31" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" s="4">
+    <row r="31" spans="1:13">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+    </row>
+    <row r="32" spans="1:13" s="4" customFormat="1">
+      <c r="A32" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="4">
         <v>3</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F32" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:13">
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:13" s="4" customFormat="1">
-      <c r="A34" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" s="4">
+    <row r="34" spans="1:13">
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:13" s="4" customFormat="1">
+      <c r="A35" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="4">
         <v>3</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F35" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:13" s="4" customFormat="1">
-      <c r="A37" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37" s="4">
+    <row r="38" spans="1:13" s="4" customFormat="1">
+      <c r="A38" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="4">
         <v>2</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F38" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:13" s="4" customFormat="1">
-      <c r="A40" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" s="4">
-        <v>1</v>
-      </c>
-      <c r="F40" s="4">
+    <row r="41" spans="1:13" s="4" customFormat="1">
+      <c r="A41" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="4">
+        <v>1</v>
+      </c>
+      <c r="F41" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="5"/>
@@ -1161,55 +1371,88 @@
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
     </row>
-    <row r="43" spans="1:13" s="4" customFormat="1">
-      <c r="A43" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B43" s="4">
-        <v>1</v>
-      </c>
-      <c r="F43" s="4">
+    <row r="43" spans="1:13">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+    </row>
+    <row r="44" spans="1:13" s="4" customFormat="1">
+      <c r="A44" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" s="4">
+        <v>1</v>
+      </c>
+      <c r="F44" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:13" s="3" customFormat="1">
-      <c r="A46" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
-      <c r="A48" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
+    <row r="47" spans="1:13" s="3" customFormat="1">
+      <c r="A47" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
+        <v>53</v>
+      </c>
+      <c r="B50">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
+        <v>54</v>
+      </c>
+      <c r="B51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
+        <v>55</v>
+      </c>
+      <c r="B52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
+        <v>56</v>
+      </c>
+      <c r="B53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>57</v>
+      </c>
+      <c r="B54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1242,12 +1485,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -1273,12 +1516,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15">

--- a/Sprint 2 Documentation/Sprint2Backlog.xlsx
+++ b/Sprint 2 Documentation/Sprint2Backlog.xlsx
@@ -1,30 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22604"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_828\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\uni - gitfolder\Agile-Software-Development\Sprint 2 Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D709758-5C65-44C6-9B4A-7D51E7570EAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7185F107-3549-4379-B8D2-34DC571B3FA6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -157,9 +155,6 @@
     <t>Add automatic value placement for single ended slider</t>
   </si>
   <si>
-    <t>16. As a customer, I can view the contact page</t>
-  </si>
-  <si>
     <t>Update contact page design</t>
   </si>
   <si>
@@ -215,13 +210,16 @@
   </si>
   <si>
     <t>In-Progress</t>
+  </si>
+  <si>
+    <t>16. As a customer, I can view service provider information page</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -643,22 +641,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0174FFD9-7094-43F7-9D9D-5E73D5FB3BEA}">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="65.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="65.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" customWidth="1"/>
+    <col min="12" max="12" width="13.88671875" customWidth="1"/>
+    <col min="13" max="13" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -699,7 +697,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="8" customFormat="1">
+    <row r="2" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>13</v>
       </c>
@@ -713,7 +711,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -748,7 +746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -783,7 +781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -815,7 +813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="8" customFormat="1">
+    <row r="6" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>22</v>
       </c>
@@ -826,7 +824,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -858,7 +856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="8" customFormat="1">
+    <row r="8" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>24</v>
       </c>
@@ -869,7 +867,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -901,7 +899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -933,7 +931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -965,7 +963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="4" customFormat="1">
+    <row r="12" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>29</v>
       </c>
@@ -976,7 +974,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -1011,7 +1009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1046,7 +1044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="4" customFormat="1">
+    <row r="15" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>32</v>
       </c>
@@ -1057,7 +1055,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>33</v>
       </c>
@@ -1092,7 +1090,7 @@
       </c>
       <c r="M16" s="5"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>34</v>
       </c>
@@ -1127,7 +1125,7 @@
       </c>
       <c r="M17" s="5"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>35</v>
       </c>
@@ -1162,7 +1160,7 @@
       </c>
       <c r="M18" s="5"/>
     </row>
-    <row r="19" spans="1:13" s="4" customFormat="1">
+    <row r="19" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>37</v>
       </c>
@@ -1173,7 +1171,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -1208,7 +1206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -1243,7 +1241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -1275,17 +1273,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="8" customFormat="1">
-      <c r="A23" s="8" t="s">
+    <row r="23" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="4">
+        <v>4</v>
+      </c>
+      <c r="F23" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>41</v>
-      </c>
-      <c r="B23" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" t="s">
-        <v>42</v>
       </c>
       <c r="C24" t="s">
         <v>17</v>
@@ -1318,9 +1319,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
         <v>17</v>
@@ -1350,9 +1351,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="4" customFormat="1">
+    <row r="26" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B26" s="4">
         <v>3</v>
@@ -1361,9 +1362,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="4" customFormat="1">
+    <row r="29" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B29" s="4">
         <v>3</v>
@@ -1372,7 +1373,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -1387,7 +1388,7 @@
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -1402,9 +1403,9 @@
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
     </row>
-    <row r="32" spans="1:13" s="4" customFormat="1">
+    <row r="32" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B32" s="4">
         <v>3</v>
@@ -1413,15 +1414,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:13" s="4" customFormat="1">
+    <row r="35" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B35" s="4">
         <v>3</v>
@@ -1430,9 +1431,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:13" s="4" customFormat="1">
+    <row r="38" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B38" s="4">
         <v>2</v>
@@ -1441,9 +1442,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:13" s="4" customFormat="1">
+    <row r="41" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B41" s="4">
         <v>1</v>
@@ -1452,7 +1453,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -1467,7 +1468,7 @@
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -1482,9 +1483,9 @@
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
     </row>
-    <row r="44" spans="1:13" s="4" customFormat="1">
+    <row r="44" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="4">
         <v>1</v>
@@ -1493,59 +1494,86 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:13" s="3" customFormat="1">
+    <row r="47" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F47" s="3">
+        <v>48</v>
+      </c>
+      <c r="G47" s="3">
+        <f>SUM(G3:G25)</f>
+        <v>37</v>
+      </c>
+      <c r="H47" s="3">
+        <f t="shared" ref="H47:L47" si="0">SUM(H3:H25)</f>
+        <v>17</v>
+      </c>
+      <c r="I47" s="3">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="J47" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K47" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>53</v>
       </c>
       <c r="B50">
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51">
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53">
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54">
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55">
         <v>3</v>
@@ -1574,22 +1602,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1605,22 +1633,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15">
-      <c r="A2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="15">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
